--- a/Question_Sets/Role-specific skills/Risk Management.xlsx
+++ b/Question_Sets/Role-specific skills/Risk Management.xlsx
@@ -16,23 +16,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You have been appointed as a risk management consultant. To start work, you need to understand the company’s risk appetite.Who should be responsible for approving the company's risk appetite?", 'ques_type': 2, 'options': ['The board of directors', 'Senior management', 'The risk manager', 'The head of internal auditing', 'The shareholders'], 'score': 'The board of directors'}, {'title': 'You are the risk manager at a manufacturing company. You want to assess the likelihood of non-availability of a material required for the production of a significant order.Which of the following factors should you consider?', 'ques_type': 15, 'options': ['History of material availability.', 'Professional judgment of the head of procurement.', 'Internal controls on procurement and inventory management.', 'Standardization of the manufacturing process.', 'Skill level and commitment of the production team.', 'Total cost and contribution margin associated with the order.'], 'score': ['History of material availability.', 'Professional judgment of the head of procurement.', 'Internal controls on procurement and inventory management.']}, {'title': 'You are the risk manager for your company and have implemented a plan to mitigate unauthorized use of company vehicles, initially deemed a high risk. However, minor control gaps persist, leaving a small residual risk.What should be your next step regarding the residual risk?', 'ques_type': 2, 'options': ['Take no further action.', 'Prohibit staff from using company vehicles until residual risk is mitigated.', 'Consult with vehicle users and ask for their input on mitigating the residual risk.', 'Document the residual risk and ensure its periodic review and monitoring.'], 'score': 'Document the residual risk and ensure its periodic review and monitoring.'}, {'title': 'You are a consultant for ABC Bank. You need to propose effective fraud risk management strategies to prevent the potential embezzlement of funds by cashiers.Which of the following steps should you take first?', 'ques_type': 2, 'options': ['Conduct a risk assessment of the potential embezzlement.', 'Implement strong internal controls on cash handling.', 'Conduct a surprise cash audit.', 'Install security cameras in the cashier’s room.'], 'score': 'Conduct a risk assessment of the potential embezzlement.'}]</t>
+    <t>questions = [
+    {
+        "title": "You have been appointed as a risk management consultant. To start work, you need to understand the company\u2019s risk appetite.Who should be responsible for approving the company's risk appetite?",
+        "ques_type": 2,
+        "options": [
+            "The board of directors",
+            "Senior management",
+            "The risk manager",
+            "The head of internal auditing",
+            "The shareholders"
+        ],
+        "score": "The board of directors"
+    },
+    {
+        "title": "You are the risk manager at a manufacturing company. You want to assess the likelihood of non-availability of a material required for the production of a significant order.Which of the following factors should you consider?",
+        "ques_type": 15,
+        "options": [
+            "History of material availability.",
+            "Professional judgment of the head of procurement.",
+            "Internal controls on procurement and inventory management.",
+            "Standardization of the manufacturing process.",
+            "Skill level and commitment of the production team.",
+            "Total cost and contribution margin associated with the order."
+        ],
+        "score": [
+            "History of material availability.",
+            "Professional judgment of the head of procurement.",
+            "Internal controls on procurement and inventory management."
+        ]
+    },
+    {
+        "title": "You are the risk manager for your company and have implemented a plan to mitigate unauthorized use of company vehicles, initially deemed a high risk. However, minor control gaps persist, leaving a small residual risk.What should be your next step regarding the residual risk?",
+        "ques_type": 2,
+        "options": [
+            "Take no further action.",
+            "Prohibit staff from using company vehicles until residual risk is mitigated.",
+            "Consult with vehicle users and ask for their input on mitigating the residual risk.",
+            "Document the residual risk and ensure its periodic review and monitoring."
+        ],
+        "score": "Document the residual risk and ensure its periodic review and monitoring."
+    },
+    {
+        "title": "You are a consultant for ABC Bank. You need to propose effective fraud risk management strategies to prevent the potential embezzlement of funds by cashiers.Which of the following steps should you take first?",
+        "ques_type": 2,
+        "options": [
+            "Conduct a risk assessment of the potential embezzlement.",
+            "Implement strong internal controls on cash handling.",
+            "Conduct a surprise cash audit.",
+            "Install security cameras in the cashier\u2019s room."
+        ],
+        "score": "Conduct a risk assessment of the potential embezzlement."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +100,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +400,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
